--- a/Chain_Angle/M5Stack-Chain-Angle-通讯协议-V1.xlsx
+++ b/Chain_Angle/M5Stack-Chain-Angle-通讯协议-V1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="86">
   <si>
     <t>M5Stack Chain-Angle Protocol</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Data1</t>
   </si>
   <si>
-    <t xml:space="preserve">data2 </t>
+    <t xml:space="preserve">Data2 </t>
   </si>
   <si>
     <t>Data3</t>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Data5</t>
+  </si>
+  <si>
+    <t>Data6</t>
   </si>
   <si>
     <t>设置RGB值</t>
@@ -353,17 +356,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ @"/>
-    <numFmt numFmtId="177" formatCode="\ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="\ \ \ \ \ \ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="180" formatCode="\ \ \ \ \ \ \ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="\ \ \ \ \ \ \ \ \ \ \ 0_ "/>
+    <numFmt numFmtId="179" formatCode="\ \ \ \ \ \ \ \ \ \ \ \ 0_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1076,7 +1078,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1093,16 +1095,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1125,32 +1124,29 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1475,8 +1471,8 @@
   </sheetPr>
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2833333333333" defaultRowHeight="14.25"/>
@@ -1504,12 +1500,12 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1522,10 +1518,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="22">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="21">
         <v>45580</v>
       </c>
     </row>
@@ -1539,1161 +1535,1163 @@
       <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>3</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>4</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>7</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="22">
         <v>8</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>9</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="10.3" customHeight="1" spans="1:12">
       <c r="A4" s="2"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="24"/>
+      <c r="L4" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="1" ht="14" customHeight="1" spans="1:12">
-      <c r="A5" s="13" t="s">
-        <v>14</v>
+      <c r="A5" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="J5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" customFormat="1" ht="14" customHeight="1" spans="1:12">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="I6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" customFormat="1" ht="46" customHeight="1" spans="1:12">
+      <c r="A7" s="12"/>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="F9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" customFormat="1" ht="31" customHeight="1" spans="1:12">
+      <c r="A10" s="12"/>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="20" t="s">
+      <c r="D11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" customFormat="1" ht="17" customHeight="1" spans="1:12">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" customFormat="1" ht="46" customHeight="1" spans="1:12">
-      <c r="A7" s="13"/>
-      <c r="B7" s="3" t="s">
+      <c r="H12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" customFormat="1" ht="58" customHeight="1" spans="1:12">
+      <c r="A13" s="12"/>
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" customFormat="1" ht="16" customHeight="1" spans="1:12">
-      <c r="A8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="C13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="E14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A16" s="12"/>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="A17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-    </row>
-    <row r="9" customFormat="1" ht="16" customHeight="1" spans="1:12">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
+      <c r="D17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" customFormat="1" ht="31" customHeight="1" spans="1:12">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
+      <c r="H17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" customFormat="1" ht="17" customHeight="1" spans="1:12">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" customFormat="1" ht="58" customHeight="1" spans="1:12">
-      <c r="A13" s="13"/>
-      <c r="B13" s="3" t="s">
+      <c r="I17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" customFormat="1" ht="16" customHeight="1" spans="1:12">
-      <c r="A14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" customFormat="1" ht="16" customHeight="1" spans="1:12">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A16" s="13"/>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-    </row>
-    <row r="17" customFormat="1" ht="18" customHeight="1" spans="1:12">
-      <c r="A17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" customFormat="1" ht="17" customHeight="1" spans="1:12">
       <c r="A18" s="2"/>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20" t="s">
-        <v>27</v>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="41" customHeight="1" spans="1:12">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="A20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-    </row>
-    <row r="20" customFormat="1" ht="18" customHeight="1" spans="1:12">
-      <c r="A20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="I20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A21" s="2"/>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20" t="s">
-        <v>27</v>
+      <c r="I21" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="41" customHeight="1" spans="1:12">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-    </row>
-    <row r="23" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A23" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="C24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="17" t="s">
+      <c r="E24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="20" t="s">
+      <c r="G24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-    </row>
-    <row r="24" customFormat="1" ht="16" customHeight="1" spans="1:12">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13" t="s">
+      <c r="H24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="I24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" customFormat="1" ht="69" customHeight="1" spans="1:12">
+      <c r="A25" s="12"/>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" customFormat="1" ht="17" customHeight="1" spans="1:12">
+      <c r="A26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" customFormat="1" ht="17" customHeight="1" spans="1:12">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="C27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="17" t="s">
+      <c r="E27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" customFormat="1" ht="49" customHeight="1" spans="1:12">
+      <c r="A28" s="12"/>
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" customFormat="1" ht="20" customHeight="1" spans="1:12">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-    </row>
-    <row r="25" customFormat="1" ht="69" customHeight="1" spans="1:12">
-      <c r="A25" s="13"/>
-      <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" customFormat="1" ht="17" customHeight="1" spans="1:12">
-      <c r="A26" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="D30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" customFormat="1" ht="17" customHeight="1" spans="1:12">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
+      <c r="E30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="33" customHeight="1" spans="1:12">
+      <c r="A31" s="12"/>
+      <c r="B31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="C33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-    </row>
-    <row r="28" customFormat="1" ht="49" customHeight="1" spans="1:12">
-      <c r="A28" s="13"/>
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-    </row>
-    <row r="29" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="15" t="s">
+      <c r="E33" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A34" s="12"/>
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A35" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" customFormat="1" ht="20" customHeight="1" spans="1:12">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
+      <c r="E35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="C36" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" ht="33" customHeight="1" spans="1:12">
-      <c r="A31" s="13"/>
-      <c r="B31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="19" t="s">
+      <c r="E36" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-    </row>
-    <row r="32" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A32" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="15" t="s">
+    </row>
+    <row r="37" customFormat="1" ht="40" customHeight="1" spans="1:12">
+      <c r="A37" s="12"/>
+      <c r="B37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+    </row>
+    <row r="38" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A38" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-    </row>
-    <row r="33" customFormat="1" ht="18" customHeight="1" spans="1:12">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13" t="s">
+      <c r="E39" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" ht="31" customHeight="1" spans="1:12">
+      <c r="A40" s="12"/>
+      <c r="B40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+    </row>
+    <row r="41" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A41" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="15" t="s">
+      <c r="C42" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A34" s="13"/>
-      <c r="B34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-    </row>
-    <row r="35" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A35" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="15" t="s">
+      <c r="E42" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="28" customHeight="1" spans="1:12">
+      <c r="A43" s="12"/>
+      <c r="B43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+    </row>
+    <row r="44" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A44" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-    </row>
-    <row r="36" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13" t="s">
+      <c r="E44" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="15" t="s">
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+    </row>
+    <row r="45" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" ht="40" customHeight="1" spans="1:12">
-      <c r="A37" s="13"/>
-      <c r="B37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-    </row>
-    <row r="38" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A38" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-    </row>
-    <row r="39" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13" t="s">
+      <c r="E45" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" ht="31" customHeight="1" spans="1:12">
-      <c r="A40" s="13"/>
-      <c r="B40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-    </row>
-    <row r="41" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A41" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-    </row>
-    <row r="42" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" ht="28" customHeight="1" spans="1:12">
-      <c r="A43" s="13"/>
-      <c r="B43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-    </row>
-    <row r="44" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A44" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-    </row>
-    <row r="45" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20" t="s">
-        <v>61</v>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="32" customHeight="1" spans="1:12">
-      <c r="A46" s="13"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
     </row>
     <row r="71" ht="13" customHeight="1"/>
     <row r="72" hidden="1"/>
